--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.873844</v>
+        <v>1.494056333333333</v>
       </c>
       <c r="H2">
-        <v>155.621532</v>
+        <v>4.482169</v>
       </c>
       <c r="I2">
-        <v>0.9152980296207101</v>
+        <v>0.2373598341615283</v>
       </c>
       <c r="J2">
-        <v>0.9152980296207101</v>
+        <v>0.2373598341615284</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.807635</v>
+        <v>7.574702666666667</v>
       </c>
       <c r="N2">
-        <v>14.422905</v>
+        <v>22.724108</v>
       </c>
       <c r="O2">
-        <v>0.1639819574772189</v>
+        <v>0.2360813295275979</v>
       </c>
       <c r="P2">
-        <v>0.1639819574772189</v>
+        <v>0.2360813295275979</v>
       </c>
       <c r="Q2">
-        <v>249.39050799894</v>
+        <v>11.31703249225022</v>
       </c>
       <c r="R2">
-        <v>2244.51457199046</v>
+        <v>101.853292430252</v>
       </c>
       <c r="S2">
-        <v>0.1500923625722455</v>
+        <v>0.05603622522530377</v>
       </c>
       <c r="T2">
-        <v>0.1500923625722455</v>
+        <v>0.05603622522530378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.873844</v>
+        <v>1.494056333333333</v>
       </c>
       <c r="H3">
-        <v>155.621532</v>
+        <v>4.482169</v>
       </c>
       <c r="I3">
-        <v>0.9152980296207101</v>
+        <v>0.2373598341615283</v>
       </c>
       <c r="J3">
-        <v>0.9152980296207101</v>
+        <v>0.2373598341615284</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.592782</v>
       </c>
       <c r="O3">
-        <v>0.643434534959602</v>
+        <v>0.5879438355171306</v>
       </c>
       <c r="P3">
-        <v>0.6434345349596021</v>
+        <v>0.5879438355171307</v>
       </c>
       <c r="Q3">
-        <v>978.5617149980027</v>
+        <v>28.18426812268422</v>
       </c>
       <c r="R3">
-        <v>8807.055434982025</v>
+        <v>253.658413104158</v>
       </c>
       <c r="S3">
-        <v>0.5889343620384416</v>
+        <v>0.139554251294639</v>
       </c>
       <c r="T3">
-        <v>0.5889343620384417</v>
+        <v>0.1395542512946391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.873844</v>
+        <v>1.494056333333333</v>
       </c>
       <c r="H4">
-        <v>155.621532</v>
+        <v>4.482169</v>
       </c>
       <c r="I4">
-        <v>0.9152980296207101</v>
+        <v>0.2373598341615283</v>
       </c>
       <c r="J4">
-        <v>0.9152980296207101</v>
+        <v>0.2373598341615284</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.938532</v>
       </c>
       <c r="O4">
-        <v>0.192583507563179</v>
+        <v>0.1759748349552714</v>
       </c>
       <c r="P4">
-        <v>0.192583507563179</v>
+        <v>0.1759748349552714</v>
       </c>
       <c r="Q4">
-        <v>292.8889221856693</v>
+        <v>8.435707003989776</v>
       </c>
       <c r="R4">
-        <v>2636.000299671024</v>
+        <v>75.92136303590799</v>
       </c>
       <c r="S4">
-        <v>0.1762713050100228</v>
+        <v>0.04176935764158553</v>
       </c>
       <c r="T4">
-        <v>0.1762713050100228</v>
+        <v>0.04176935764158554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.2148</v>
       </c>
       <c r="I5">
-        <v>0.05419743768715064</v>
+        <v>0.4879832509286579</v>
       </c>
       <c r="J5">
-        <v>0.05419743768715064</v>
+        <v>0.4879832509286579</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.807635</v>
+        <v>7.574702666666667</v>
       </c>
       <c r="N5">
-        <v>14.422905</v>
+        <v>22.724108</v>
       </c>
       <c r="O5">
-        <v>0.1639819574772189</v>
+        <v>0.2360813295275979</v>
       </c>
       <c r="P5">
-        <v>0.1639819574772189</v>
+        <v>0.2360813295275979</v>
       </c>
       <c r="Q5">
-        <v>14.767131666</v>
+        <v>23.26645671093334</v>
       </c>
       <c r="R5">
-        <v>132.904184994</v>
+        <v>209.3981103984</v>
       </c>
       <c r="S5">
-        <v>0.008887401922188558</v>
+        <v>0.115203734666437</v>
       </c>
       <c r="T5">
-        <v>0.008887401922188558</v>
+        <v>0.115203734666437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.2148</v>
       </c>
       <c r="I6">
-        <v>0.05419743768715064</v>
+        <v>0.4879832509286579</v>
       </c>
       <c r="J6">
-        <v>0.05419743768715064</v>
+        <v>0.4879832509286579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.592782</v>
       </c>
       <c r="O6">
-        <v>0.643434534959602</v>
+        <v>0.5879438355171306</v>
       </c>
       <c r="P6">
-        <v>0.6434345349596021</v>
+        <v>0.5879438355171307</v>
       </c>
       <c r="Q6">
         <v>57.94346306373333</v>
@@ -818,10 +818,10 @@
         <v>521.4911675736</v>
       </c>
       <c r="S6">
-        <v>0.03487250311423378</v>
+        <v>0.2869067442191135</v>
       </c>
       <c r="T6">
-        <v>0.03487250311423379</v>
+        <v>0.2869067442191136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.2148</v>
       </c>
       <c r="I7">
-        <v>0.05419743768715064</v>
+        <v>0.4879832509286579</v>
       </c>
       <c r="J7">
-        <v>0.05419743768715064</v>
+        <v>0.4879832509286579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>16.938532</v>
       </c>
       <c r="O7">
-        <v>0.192583507563179</v>
+        <v>0.1759748349552714</v>
       </c>
       <c r="P7">
-        <v>0.192583507563179</v>
+        <v>0.1759748349552714</v>
       </c>
       <c r="Q7">
         <v>17.34279829706667</v>
@@ -880,10 +880,10 @@
         <v>156.0851846736</v>
       </c>
       <c r="S7">
-        <v>0.0104375326507283</v>
+        <v>0.08587277204310735</v>
       </c>
       <c r="T7">
-        <v>0.0104375326507283</v>
+        <v>0.08587277204310735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.186466</v>
       </c>
       <c r="I8">
-        <v>0.03050453269213933</v>
+        <v>0.2746569149098138</v>
       </c>
       <c r="J8">
-        <v>0.03050453269213932</v>
+        <v>0.2746569149098139</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.807635</v>
+        <v>7.574702666666667</v>
       </c>
       <c r="N8">
-        <v>14.422905</v>
+        <v>22.724108</v>
       </c>
       <c r="O8">
-        <v>0.1639819574772189</v>
+        <v>0.2360813295275979</v>
       </c>
       <c r="P8">
-        <v>0.1639819574772189</v>
+        <v>0.2360813295275979</v>
       </c>
       <c r="Q8">
-        <v>8.31154515597</v>
+        <v>13.095312613592</v>
       </c>
       <c r="R8">
-        <v>74.80390640373001</v>
+        <v>117.857813522328</v>
       </c>
       <c r="S8">
-        <v>0.005002192982784825</v>
+        <v>0.06484136963585718</v>
       </c>
       <c r="T8">
-        <v>0.005002192982784825</v>
+        <v>0.0648413696358572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.186466</v>
       </c>
       <c r="I9">
-        <v>0.03050453269213933</v>
+        <v>0.2746569149098138</v>
       </c>
       <c r="J9">
-        <v>0.03050453269213932</v>
+        <v>0.2746569149098139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>56.592782</v>
       </c>
       <c r="O9">
-        <v>0.643434534959602</v>
+        <v>0.5879438355171306</v>
       </c>
       <c r="P9">
-        <v>0.6434345349596021</v>
+        <v>0.5879438355171307</v>
       </c>
       <c r="Q9">
         <v>32.612948854268</v>
@@ -1004,10 +1004,10 @@
         <v>293.516539688412</v>
       </c>
       <c r="S9">
-        <v>0.01962766980692664</v>
+        <v>0.1614828400033781</v>
       </c>
       <c r="T9">
-        <v>0.01962766980692664</v>
+        <v>0.1614828400033782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.186466</v>
       </c>
       <c r="I10">
-        <v>0.03050453269213933</v>
+        <v>0.2746569149098138</v>
       </c>
       <c r="J10">
-        <v>0.03050453269213932</v>
+        <v>0.2746569149098139</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>16.938532</v>
       </c>
       <c r="O10">
-        <v>0.192583507563179</v>
+        <v>0.1759748349552714</v>
       </c>
       <c r="P10">
-        <v>0.192583507563179</v>
+        <v>0.1759748349552714</v>
       </c>
       <c r="Q10">
         <v>9.761235589768001</v>
@@ -1066,10 +1066,10 @@
         <v>87.851120307912</v>
       </c>
       <c r="S10">
-        <v>0.005874669902427854</v>
+        <v>0.0483327052705785</v>
       </c>
       <c r="T10">
-        <v>0.005874669902427853</v>
+        <v>0.04833270527057851</v>
       </c>
     </row>
   </sheetData>
